--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_3_17.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_3_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>422667.6614381165</v>
+        <v>420780.0799217147</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>20.14532219379995</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>106.5954398232957</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -719,13 +719,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>49.7569678412159</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -826,13 +826,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>78.32618729827857</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>98.93152011442207</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>3.842927818592534</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>91.61923009959736</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1066,13 +1066,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>94.65568569260671</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1096,13 +1096,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1136,10 +1136,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>209.0184113553412</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,10 +1148,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -1190,16 +1190,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>146.9739705604683</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1300,19 +1300,19 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>43.87606892860547</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>20.24586684424271</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560523</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1537,10 +1537,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>153.5039308090132</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,22 +1762,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1816,10 +1816,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>190.7955476484028</v>
+        <v>49.90082807782675</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1898,7 +1898,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1999,16 +1999,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2017,7 +2017,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2053,13 +2053,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>226.1741491427754</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2068,7 +2068,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>206.5949533515509</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,22 +2284,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>203.8435192151917</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>86.72521931200615</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>118.4898845065121</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2536,13 +2536,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>222.217994954871</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952497999</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2719,19 +2719,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>50.98540654304585</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.4192454642719</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2767,19 +2767,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>143.4623085010276</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2798,7 +2798,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722625</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>124.6287235533802</v>
       </c>
       <c r="C31" t="n">
-        <v>19.67402846882766</v>
+        <v>112.0435644700707</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965537</v>
+        <v>42.46536444509196</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437426</v>
+        <v>90.21779139437413</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348206</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897914</v>
+        <v>93.71057173897901</v>
       </c>
       <c r="I31" t="n">
-        <v>55.215988835715</v>
+        <v>55.21598883571487</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.7610957752358</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550463</v>
+        <v>142.7175533550461</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298323</v>
+        <v>166.3443044298321</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700204</v>
+        <v>231.0340957700202</v>
       </c>
       <c r="V31" t="n">
-        <v>196.934386695271</v>
+        <v>196.9343866952709</v>
       </c>
       <c r="W31" t="n">
-        <v>231.319741708034</v>
+        <v>231.3197417080339</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604802</v>
+        <v>170.50639876048</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235378</v>
+        <v>163.3813967235377</v>
       </c>
     </row>
     <row r="32">
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E34" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463121</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E37" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G37" t="n">
         <v>98.36167833373693</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463132</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898712</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857165</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692846</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329054</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373688</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789542</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463129</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415209</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S40" t="n">
-        <v>129.7889198539625</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T40" t="n">
-        <v>153.4156709287485</v>
+        <v>153.4156709287486</v>
       </c>
       <c r="U40" t="n">
-        <v>218.1054622689366</v>
+        <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
         <v>184.0057531941873</v>
@@ -3724,7 +3724,7 @@
         <v>218.3911082069503</v>
       </c>
       <c r="X40" t="n">
-        <v>157.5777652593964</v>
+        <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
         <v>150.4527632224541</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D43" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373693</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E46" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373692</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4304,31 +4304,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1164.312709242129</v>
+        <v>2149.375138862102</v>
       </c>
       <c r="C2" t="n">
-        <v>1164.312709242129</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="D2" t="n">
-        <v>806.0470106353782</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E2" t="n">
-        <v>806.0470106353782</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>395.0611058457707</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
@@ -4358,22 +4358,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2534.448240111043</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U2" t="n">
-        <v>2280.686454749135</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V2" t="n">
-        <v>2280.686454749135</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="W2" t="n">
-        <v>1927.91779947902</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="X2" t="n">
-        <v>1554.45204121794</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="Y2" t="n">
-        <v>1164.312709242129</v>
+        <v>2169.72394915887</v>
       </c>
     </row>
     <row r="3">
@@ -4398,34 +4398,34 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>290.8087152951864</v>
+        <v>104.2025452963401</v>
       </c>
       <c r="C4" t="n">
-        <v>290.8087152951864</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>290.8087152951864</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>290.8087152951864</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4510,28 +4510,28 @@
         <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>579.9823256406185</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T4" t="n">
-        <v>579.9823256406185</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="U4" t="n">
-        <v>290.8087152951864</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="V4" t="n">
-        <v>290.8087152951864</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="W4" t="n">
-        <v>290.8087152951864</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="X4" t="n">
-        <v>290.8087152951864</v>
+        <v>285.8510101265798</v>
       </c>
       <c r="Y4" t="n">
-        <v>290.8087152951864</v>
+        <v>285.8510101265798</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1695.806495672433</v>
+        <v>1328.4755035807</v>
       </c>
       <c r="C5" t="n">
-        <v>1695.806495672433</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D5" t="n">
-        <v>1695.806495672433</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E5" t="n">
-        <v>1310.018243074188</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F5" t="n">
-        <v>899.0323382845809</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G5" t="n">
-        <v>481.0685301827677</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>153.8738102187706</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2638.23865627741</v>
       </c>
       <c r="T5" t="n">
-        <v>2302.336936304455</v>
+        <v>2419.603989249473</v>
       </c>
       <c r="U5" t="n">
-        <v>2048.575150942547</v>
+        <v>2419.603989249473</v>
       </c>
       <c r="V5" t="n">
-        <v>2048.575150942547</v>
+        <v>2088.541101905902</v>
       </c>
       <c r="W5" t="n">
-        <v>1695.806495672433</v>
+        <v>2088.541101905902</v>
       </c>
       <c r="X5" t="n">
-        <v>1695.806495672433</v>
+        <v>1715.075343644822</v>
       </c>
       <c r="Y5" t="n">
-        <v>1695.806495672433</v>
+        <v>1715.075343644822</v>
       </c>
     </row>
     <row r="6">
@@ -4620,67 +4620,67 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036422</v>
       </c>
       <c r="J6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>484.4236418782191</v>
+        <v>318.4909684781771</v>
       </c>
       <c r="C7" t="n">
-        <v>315.4874589503122</v>
+        <v>149.5547855502702</v>
       </c>
       <c r="D7" t="n">
-        <v>222.942782082032</v>
+        <v>149.5547855502702</v>
       </c>
       <c r="E7" t="n">
-        <v>222.942782082032</v>
+        <v>149.5547855502702</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>149.5547855502702</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5547855502702</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5547855502702</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>484.4236418782191</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>484.4236418782191</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>484.4236418782191</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>484.4236418782191</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>484.4236418782191</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>484.4236418782191</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="Y7" t="n">
-        <v>484.4236418782191</v>
+        <v>500.1394333084169</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1421.217123115521</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="C8" t="n">
-        <v>1421.217123115521</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="D8" t="n">
-        <v>1421.217123115521</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E8" t="n">
-        <v>1210.087414675782</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733128</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2478.514423990286</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U8" t="n">
-        <v>2478.514423990286</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V8" t="n">
-        <v>2147.451536646715</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="W8" t="n">
-        <v>1794.682881376601</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="X8" t="n">
-        <v>1421.217123115521</v>
+        <v>1928.871178043375</v>
       </c>
       <c r="Y8" t="n">
-        <v>1421.217123115521</v>
+        <v>1780.41262192169</v>
       </c>
     </row>
     <row r="9">
@@ -4878,10 +4878,10 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
         <v>309.190302261463</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>290.8087152951864</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="C10" t="n">
-        <v>290.8087152951864</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="D10" t="n">
-        <v>290.8087152951864</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="E10" t="n">
-        <v>290.8087152951864</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F10" t="n">
-        <v>143.918767797276</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>579.9823256406185</v>
+        <v>707.6786136566941</v>
       </c>
       <c r="U10" t="n">
-        <v>290.8087152951864</v>
+        <v>707.6786136566941</v>
       </c>
       <c r="V10" t="n">
-        <v>290.8087152951864</v>
+        <v>707.6786136566941</v>
       </c>
       <c r="W10" t="n">
-        <v>290.8087152951864</v>
+        <v>418.2614436197335</v>
       </c>
       <c r="X10" t="n">
-        <v>290.8087152951864</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="Y10" t="n">
-        <v>290.8087152951864</v>
+        <v>190.2718927217162</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5024,10 +5024,10 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
         <v>488.193237080547</v>
@@ -5039,10 +5039,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5057,7 +5057,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5066,25 +5066,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5118,19 +5118,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>233.7852434110091</v>
       </c>
       <c r="K12" t="n">
-        <v>549.5984374701561</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L12" t="n">
-        <v>796.3635653766202</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M12" t="n">
-        <v>1103.683698656582</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N12" t="n">
-        <v>1433.546326320615</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O12" t="n">
         <v>1808.163466324677</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>399.161514522856</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>399.161514522856</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>399.161514522856</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>399.161514522856</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>252.2715670249457</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
         <v>97.21709146028584</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1164.055751909234</v>
+        <v>1379.229518531122</v>
       </c>
       <c r="U13" t="n">
-        <v>1164.055751909234</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V13" t="n">
-        <v>909.3712637033467</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W13" t="n">
-        <v>619.9540936663861</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X13" t="n">
-        <v>619.9540936663861</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y13" t="n">
-        <v>399.161514522856</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="14">
@@ -5267,28 +5267,28 @@
         <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5355,22 +5355,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>233.7852434110089</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>710.3120936331046</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>710.3120936331046</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>560.1954542207689</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383757</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404654</v>
       </c>
       <c r="G16" t="n">
         <v>97.21709146028584</v>
@@ -5449,7 +5449,7 @@
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5464,22 +5464,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1306.193495155475</v>
+        <v>1448.511393711613</v>
       </c>
       <c r="U16" t="n">
-        <v>1017.064856369034</v>
+        <v>1448.511393711613</v>
       </c>
       <c r="V16" t="n">
-        <v>1017.064856369034</v>
+        <v>1448.511393711613</v>
       </c>
       <c r="W16" t="n">
-        <v>727.647686332073</v>
+        <v>1159.094223674652</v>
       </c>
       <c r="X16" t="n">
-        <v>499.6581354340557</v>
+        <v>931.1046727766347</v>
       </c>
       <c r="Y16" t="n">
-        <v>278.8655562905255</v>
+        <v>710.3120936331046</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5498,34 +5498,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823784</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5549,16 +5549,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5595,25 +5595,25 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>796.3635653766202</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M18" t="n">
-        <v>1103.683698656582</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N18" t="n">
-        <v>1433.546326320615</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O18" t="n">
-        <v>1797.533454227377</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>564.4843764226425</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C19" t="n">
-        <v>395.5481934947356</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D19" t="n">
-        <v>395.5481934947356</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
         <v>97.21709146028584</v>
@@ -5680,13 +5680,13 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5701,22 +5701,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U19" t="n">
-        <v>1498.916270557902</v>
+        <v>986.0022165609661</v>
       </c>
       <c r="V19" t="n">
-        <v>1244.231782352015</v>
+        <v>757.5434800531123</v>
       </c>
       <c r="W19" t="n">
-        <v>954.8146123150549</v>
+        <v>468.1263100161517</v>
       </c>
       <c r="X19" t="n">
-        <v>954.8146123150549</v>
+        <v>468.1263100161517</v>
       </c>
       <c r="Y19" t="n">
-        <v>746.1328412528823</v>
+        <v>247.3337308726216</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5735,34 +5735,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5771,7 +5771,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
@@ -5786,16 +5786,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5829,25 +5829,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L21" t="n">
-        <v>563.7235867775516</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M21" t="n">
-        <v>1332.091733170013</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N21" t="n">
-        <v>1661.954360834046</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>377.6878657662453</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011506</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952637</v>
+        <v>787.3258814945024</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>787.3258814945024</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>559.336330596485</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>559.336330596485</v>
       </c>
     </row>
     <row r="23">
@@ -5984,7 +5984,7 @@
         <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823785</v>
@@ -6069,13 +6069,13 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K24" t="n">
-        <v>339.7502131046252</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>953.6472828615139</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M24" t="n">
-        <v>1722.015429253975</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N24" t="n">
         <v>2051.878056918008</v>
@@ -6148,10 +6148,10 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
         <v>779.0639759471192</v>
@@ -6160,7 +6160,7 @@
         <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P25" t="n">
         <v>1460.082827585746</v>
@@ -6175,22 +6175,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1379.229518531122</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U25" t="n">
-        <v>1090.100879744681</v>
+        <v>986.0022165609661</v>
       </c>
       <c r="V25" t="n">
-        <v>835.4163915387938</v>
+        <v>731.3177283550792</v>
       </c>
       <c r="W25" t="n">
-        <v>545.9992215018333</v>
+        <v>506.8551071885429</v>
       </c>
       <c r="X25" t="n">
-        <v>318.0096706038159</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6209,25 +6209,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6236,7 +6236,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6251,25 +6251,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6303,16 +6303,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
         <v>1558.376451307619</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>260.2520934878796</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="C28" t="n">
-        <v>260.2520934878796</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="D28" t="n">
-        <v>260.2520934878796</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E28" t="n">
-        <v>260.2520934878796</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F28" t="n">
-        <v>260.2520934878796</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>260.2520934878796</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383383</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347409</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U28" t="n">
-        <v>986.0022165609665</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V28" t="n">
-        <v>731.3177283550797</v>
+        <v>1130.219432619097</v>
       </c>
       <c r="W28" t="n">
-        <v>441.9005583181192</v>
+        <v>840.8022625821368</v>
       </c>
       <c r="X28" t="n">
-        <v>441.9005583181192</v>
+        <v>612.8127116841194</v>
       </c>
       <c r="Y28" t="n">
-        <v>441.9005583181192</v>
+        <v>392.0201325405893</v>
       </c>
     </row>
     <row r="29">
@@ -6437,43 +6437,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643324</v>
@@ -6482,31 +6482,31 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6537,7 +6537,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126482</v>
@@ -6549,13 +6549,13 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
         <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>565.420029503086</v>
+        <v>494.8466681110239</v>
       </c>
       <c r="C31" t="n">
-        <v>545.547273473967</v>
+        <v>381.6713504644878</v>
       </c>
       <c r="D31" t="n">
-        <v>451.191499343002</v>
+        <v>338.7770429441929</v>
       </c>
       <c r="E31" t="n">
-        <v>451.191499343002</v>
+        <v>338.7770429441929</v>
       </c>
       <c r="F31" t="n">
-        <v>360.0624171264624</v>
+        <v>247.6479607276534</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276537</v>
+        <v>247.6479607276534</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569677</v>
+        <v>152.9908175569675</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864669</v>
+        <v>164.2510079864672</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933498</v>
+        <v>369.0876362933502</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667505</v>
+        <v>671.4509053667509</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962046</v>
+        <v>997.6688721962053</v>
       </c>
       <c r="N31" t="n">
         <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353692</v>
+        <v>1611.390407353693</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021646</v>
+        <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056074</v>
+        <v>1936.126063056075</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.81182489927</v>
+        <v>1936.126063056075</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096193</v>
+        <v>1791.966918252998</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.628130167069</v>
+        <v>1623.942368323874</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356661998</v>
+        <v>1390.574594818804</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737482</v>
+        <v>1191.650971894288</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818921</v>
+        <v>957.9946671386986</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652454</v>
+        <v>785.765981522052</v>
       </c>
       <c r="Y31" t="n">
-        <v>565.420029503086</v>
+        <v>620.7342676598927</v>
       </c>
     </row>
     <row r="32">
@@ -6677,40 +6677,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155884</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514078</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6731,16 +6731,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6792,7 +6792,7 @@
         <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108327</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229669</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F34" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103127</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
         <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6877,7 +6877,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
@@ -6898,10 +6898,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010313</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
         <v>1701.09316900344</v>
@@ -6923,31 +6923,31 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6968,16 +6968,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7023,19 +7023,19 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
         <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7078,22 +7078,22 @@
         <v>478.0475988506723</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K37" t="n">
         <v>394.6863306254956</v>
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
@@ -7157,22 +7157,22 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
         <v>889.2841917514085</v>
@@ -7260,7 +7260,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
         <v>1558.376451307619</v>
@@ -7269,10 +7269,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108334</v>
+        <v>659.4602391108336</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229676</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D40" t="n">
-        <v>478.047598850673</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E40" t="n">
-        <v>398.954596308321</v>
+        <v>398.9545963083205</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504518</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
@@ -7336,7 +7336,7 @@
         <v>394.6863306254958</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7351,7 +7351,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R40" t="n">
         <v>1996.265827986523</v>
@@ -7363,7 +7363,7 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V40" t="n">
         <v>1304.027639859417</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045213</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.288612901032</v>
+        <v>772.2886129010323</v>
       </c>
     </row>
     <row r="41">
@@ -7506,10 +7506,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108324</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229665</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506719</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083199</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504509</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103126</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
@@ -7570,10 +7570,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7591,7 +7591,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
         <v>1865.165908942116</v>
@@ -7606,13 +7606,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.26110100452</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="44">
@@ -7625,16 +7625,16 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G44" t="n">
         <v>488.1932370805469</v>
@@ -7655,40 +7655,40 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7743,10 +7743,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G46" t="n">
         <v>221.5295092103129</v>
@@ -7810,7 +7810,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7825,31 +7825,31 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T46" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010316</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951781</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,7 +8766,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>96.03744927814714</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8781,7 +8781,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>96.03744927814694</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -8790,7 +8790,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,7 +9003,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>96.03744927814688</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9021,13 +9021,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9243,28 +9243,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>85.30006332127817</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9480,28 +9480,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>29.47535963978208</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>96.03744927814699</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9717,16 +9717,16 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>52.49733361305249</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776759</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10203,16 +10203,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>288.4091825776756</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10355,7 +10355,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10440,10 +10440,10 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10595,7 +10595,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119843</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
@@ -10677,16 +10677,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11303,7 +11303,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23425,10 +23425,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>12.98963765436437</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>103.0576765518773</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,22 +23650,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23704,10 +23704,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>30.75201340998649</v>
+        <v>171.6467329805625</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23887,16 +23887,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23905,7 +23905,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23941,13 +23941,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>25.96349418105262</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>11.98970000054391</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,10 +24124,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24145,7 +24145,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,22 +24172,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>82.3938331833856</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>165.4124240118219</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24415,7 +24415,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>103.0576765518771</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24424,13 +24424,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>64.30500338172004</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24607,19 +24607,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633775</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>97.92842182449021</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037927</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
@@ -24655,19 +24655,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>108.6753348228004</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,22 +24835,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533803</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>92.36953600124319</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>50.94685194456329</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801219</v>
+        <v>91.23070601801206</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>111.2903118348205</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.76109577523568</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>348942.7521923204</v>
+        <v>348942.7521923205</v>
       </c>
       <c r="C2" t="n">
+        <v>348942.7521923206</v>
+      </c>
+      <c r="D2" t="n">
         <v>348942.7521923205</v>
       </c>
-      <c r="D2" t="n">
-        <v>348942.7521923204</v>
-      </c>
       <c r="E2" t="n">
-        <v>332374.7007770525</v>
+        <v>332374.7007770523</v>
       </c>
       <c r="F2" t="n">
         <v>332374.7007770525</v>
       </c>
       <c r="G2" t="n">
-        <v>332374.7007770524</v>
+        <v>332374.7007770526</v>
       </c>
       <c r="H2" t="n">
         <v>332374.7007770525</v>
       </c>
       <c r="I2" t="n">
-        <v>332374.7007770525</v>
+        <v>332374.7007770526</v>
       </c>
       <c r="J2" t="n">
-        <v>332374.7007770525</v>
+        <v>332374.7007770526</v>
       </c>
       <c r="K2" t="n">
-        <v>345798.8167434799</v>
+        <v>345798.8167434798</v>
       </c>
       <c r="L2" t="n">
         <v>348942.7521923204</v>
       </c>
       <c r="M2" t="n">
-        <v>348942.7521923202</v>
+        <v>348942.7521923204</v>
       </c>
       <c r="N2" t="n">
         <v>348942.7521923204</v>
       </c>
       <c r="O2" t="n">
-        <v>348942.7521923204</v>
+        <v>348942.7521923205</v>
       </c>
       <c r="P2" t="n">
-        <v>348942.7521923203</v>
+        <v>348942.7521923205</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,13 +26390,13 @@
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284554</v>
+        <v>44162.6053028457</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086695</v>
+        <v>10342.90680086683</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284556</v>
+        <v>44162.6053028457</v>
       </c>
     </row>
     <row r="4">
@@ -26424,40 +26424,40 @@
         <v>165632.8677865244</v>
       </c>
       <c r="E4" t="n">
-        <v>22174.60758687077</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="F4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="G4" t="n">
+        <v>22174.60758687072</v>
+      </c>
+      <c r="H4" t="n">
         <v>22174.60758687071</v>
-      </c>
-      <c r="H4" t="n">
-        <v>22174.60758687073</v>
       </c>
       <c r="I4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="J4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687076</v>
       </c>
       <c r="K4" t="n">
-        <v>40339.23010106718</v>
+        <v>40339.23010106727</v>
       </c>
       <c r="L4" t="n">
         <v>44593.39482819119</v>
       </c>
       <c r="M4" t="n">
-        <v>44593.39482819121</v>
+        <v>44593.39482819119</v>
       </c>
       <c r="N4" t="n">
         <v>44593.39482819121</v>
       </c>
       <c r="O4" t="n">
-        <v>44593.39482819119</v>
+        <v>44593.3948281912</v>
       </c>
       <c r="P4" t="n">
-        <v>44593.3948281912</v>
+        <v>44593.39482819121</v>
       </c>
     </row>
     <row r="5">
@@ -26473,25 +26473,25 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="F5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="F5" t="n">
-        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
         <v>96628.20853022279</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-489517.072872158</v>
+        <v>-489517.0728721579</v>
       </c>
       <c r="C6" t="n">
+        <v>100450.8063423867</v>
+      </c>
+      <c r="D6" t="n">
         <v>100450.8063423866</v>
       </c>
-      <c r="D6" t="n">
-        <v>100450.8063423865</v>
-      </c>
       <c r="E6" t="n">
-        <v>-306947.269235431</v>
+        <v>-307044.7283614034</v>
       </c>
       <c r="F6" t="n">
-        <v>218212.7672414652</v>
+        <v>218115.308115493</v>
       </c>
       <c r="G6" t="n">
-        <v>218212.767241465</v>
+        <v>218115.308115493</v>
       </c>
       <c r="H6" t="n">
-        <v>218212.7672414651</v>
+        <v>218115.308115493</v>
       </c>
       <c r="I6" t="n">
-        <v>218212.7672414652</v>
+        <v>218115.308115493</v>
       </c>
       <c r="J6" t="n">
-        <v>41789.54804887212</v>
+        <v>41692.08892290012</v>
       </c>
       <c r="K6" t="n">
-        <v>164668.7728093444</v>
+        <v>164650.2790714096</v>
       </c>
       <c r="L6" t="n">
-        <v>196291.3447432368</v>
+        <v>196291.344743237</v>
       </c>
       <c r="M6" t="n">
-        <v>71833.23631026653</v>
+        <v>71833.23631026661</v>
       </c>
       <c r="N6" t="n">
         <v>206634.2515441038</v>
       </c>
       <c r="O6" t="n">
-        <v>206634.2515441038</v>
+        <v>206634.2515441039</v>
       </c>
       <c r="P6" t="n">
         <v>162471.6462412582</v>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855712</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="3">
@@ -26738,40 +26738,40 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="F3" t="n">
         <v>830.3824054541003</v>
-      </c>
-      <c r="F3" t="n">
-        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
         <v>830.3824054541002</v>
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26929,13 +26929,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855693</v>
+        <v>55.20325662855712</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108368</v>
+        <v>12.92863350108353</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855694</v>
+        <v>55.20325662855712</v>
       </c>
     </row>
     <row r="3">
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855693</v>
+        <v>55.20325662855712</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>362.5885194696806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,7 +27430,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>109.8528805343621</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>117.4898532574119</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27546,13 +27546,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>67.09486072465268</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
@@ -27582,16 +27582,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>52.99979613043918</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,25 +27661,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>170.572784990379</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>56.996242918615</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27786,16 +27786,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>40.30993609973154</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,13 +27816,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27837,7 +27837,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27856,10 +27856,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>172.9119587169206</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27910,16 +27910,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>239.2639680955853</v>
       </c>
     </row>
     <row r="9">
@@ -28020,19 +28020,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>123.4337333304454</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,28 +28053,28 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>204.7892386138416</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28156,7 +28156,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.294324647460598e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28618,7 +28618,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>1.989519660128281e-13</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28849,7 +28849,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -29329,7 +29329,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>1.080024958355352e-12</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855712</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855712</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855712</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855712</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855712</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855712</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855712</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855712</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855712</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855712</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855712</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855712</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855712</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855712</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855712</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855712</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855712</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855712</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855712</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855712</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855712</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855712</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855712</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855712</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="35">
@@ -30004,7 +30004,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="38">
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
   </sheetData>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,22 +31458,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,22 +31695,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32558,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,34 +33014,34 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q27" t="n">
         <v>227.9948068710956</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33099,7 +33099,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33114,10 +33114,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P28" t="n">
         <v>181.1050413469073</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33260,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33269,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33287,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34796,7 +34796,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35015,7 +35015,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,25 +35170,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730631</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>137.9476282330538</v>
       </c>
       <c r="K12" t="n">
         <v>415.0406756005178</v>
@@ -35495,13 +35495,13 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>378.4011515192551</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
         <v>525.5561835714618</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>137.9476282330536</v>
       </c>
       <c r="K15" t="n">
         <v>415.0406756005178</v>
@@ -35732,16 +35732,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,28 +35963,28 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O18" t="n">
-        <v>367.6637655623863</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>278.7330645958064</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178377</v>
+        <v>378.4011515192551</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36437,16 +36437,16 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K24" t="n">
-        <v>203.0727722009917</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004661</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O24" t="n">
         <v>282.3637022411081</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,19 +36677,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556559</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,16 +36917,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>570.7728848187837</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412252</v>
+        <v>67.71102679412263</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584676</v>
+        <v>206.9056851584677</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084855</v>
+        <v>305.4174435084856</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075295</v>
+        <v>329.5130978075297</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341606</v>
+        <v>328.4801344341607</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491599</v>
+        <v>291.44060814916</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403577</v>
+        <v>233.5868572403579</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043175</v>
+        <v>94.42895660043186</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37075,7 +37075,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37160,10 +37160,10 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>570.772884818783</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37242,7 +37242,7 @@
         <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37306,16 +37306,16 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O35" t="n">
         <v>713.1546070951472</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37391,22 +37391,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>570.772884818783</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37476,7 +37476,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
         <v>246.5154907414414</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37628,22 +37628,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520623</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595513</v>
@@ -37707,7 +37707,7 @@
         <v>318.3460770095692</v>
       </c>
       <c r="M40" t="n">
-        <v>342.4417313086133</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
         <v>341.4087679352443</v>
@@ -37719,7 +37719,7 @@
         <v>246.5154907414415</v>
       </c>
       <c r="Q40" t="n">
-        <v>107.3575901015155</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37874,13 +37874,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520617</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37947,7 +37947,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
         <v>304.3692416502435</v>
@@ -38023,7 +38023,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38111,13 +38111,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520618</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
